--- a/src/advanced/operational_prod_applications.xlsx
+++ b/src/advanced/operational_prod_applications.xlsx
@@ -8,7 +8,6 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jazzpharma-my.sharepoint.com/personal/dharris_jazzpharma_com/Documents/Project/Jazz.Python/Six Sigma Data with Python/src/advanced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{20444005-924D-4EFB-B069-0DF4391C8483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFE18FAD-BFCE-424C-A8CE-87C15EB6A298}"/>
   <bookViews>
     <workbookView xWindow="-51720" yWindow="-12690" windowWidth="51840" windowHeight="21120" xr2:uid="{C6D04543-C4BD-47D1-A58E-91A84F4BAB25}"/>
   </bookViews>
